--- a/Day 2/data.xlsx
+++ b/Day 2/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Radar chart" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Trend chart with weather" sheetId="4" r:id="rId4"/>
     <sheet name="Trend chart with daytime" sheetId="5" r:id="rId5"/>
     <sheet name="Trend chart with flight duratio" sheetId="6" r:id="rId6"/>
+    <sheet name="Name" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Спокойствие</t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>70 минут</t>
+  </si>
+  <si>
+    <t>Оценка за тренажеры</t>
+  </si>
+  <si>
+    <t>номер пилота</t>
   </si>
 </sst>
 </file>
@@ -448,22 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="3" max="4" width="19" customWidth="1"/>
+    <col min="5" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -471,16 +477,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90.6</v>
       </c>
@@ -488,13 +497,16 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>88.9</v>
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +610,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M6"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +871,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1343,4 +1355,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Day 2/data.xlsx
+++ b/Day 2/data.xlsx
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>Спокойствие</t>
   </si>
   <si>
-    <t>Физическое сост.</t>
-  </si>
-  <si>
-    <t>Психологическое сост.</t>
-  </si>
-  <si>
     <t>Скорость реакции</t>
   </si>
   <si>
@@ -116,6 +110,12 @@
   </si>
   <si>
     <t>номер пилота</t>
+  </si>
+  <si>
+    <t>Физическое состояние</t>
+  </si>
+  <si>
+    <t>Психологическое состояние</t>
   </si>
 </sst>
 </file>
@@ -152,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,7 +459,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,22 +472,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -494,7 +495,7 @@
         <v>90.6</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>55</v>
@@ -519,47 +520,50 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -620,45 +624,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -699,7 +703,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -740,7 +744,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>42.6</v>
@@ -781,7 +785,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>52.6</v>
@@ -822,7 +826,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>62.6</v>
@@ -882,45 +886,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -961,7 +965,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1017,45 +1021,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1096,7 +1100,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1152,45 +1156,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1231,7 +1235,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1272,7 +1276,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>42.6</v>
@@ -1313,7 +1317,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>52.6</v>
@@ -1359,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,13 +1374,13 @@
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>123</v>
       </c>
     </row>

--- a/Day 2/data.xlsx
+++ b/Day 2/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Radar chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>Спокойствие</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>самолет 2</t>
-  </si>
-  <si>
-    <t>самолет 3</t>
-  </si>
-  <si>
-    <t>самолет 4</t>
-  </si>
-  <si>
-    <t>самолет 5</t>
   </si>
   <si>
     <t>хорошие</t>
@@ -458,13 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
     <col min="5" max="6" width="16.21875" customWidth="1"/>
@@ -472,13 +463,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -492,22 +483,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>90.6</v>
+        <v>20.6</v>
       </c>
       <c r="B2">
+        <v>30.5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>90</v>
       </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>34</v>
-      </c>
       <c r="F2">
-        <v>55.6</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -611,10 +602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,129 +730,6 @@
         <v>79</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>42.6</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>55</v>
-      </c>
-      <c r="J4">
-        <v>58</v>
-      </c>
-      <c r="K4">
-        <v>51</v>
-      </c>
-      <c r="L4">
-        <v>79</v>
-      </c>
-      <c r="M4">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>52.6</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>74</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>55</v>
-      </c>
-      <c r="J5">
-        <v>58</v>
-      </c>
-      <c r="K5">
-        <v>51</v>
-      </c>
-      <c r="L5">
-        <v>79</v>
-      </c>
-      <c r="M5">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>62.6</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6">
-        <v>58</v>
-      </c>
-      <c r="K6">
-        <v>51</v>
-      </c>
-      <c r="L6">
-        <v>79</v>
-      </c>
-      <c r="M6">
         <v>54.7</v>
       </c>
     </row>
@@ -924,7 +792,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -965,7 +833,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1059,7 +927,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1100,7 +968,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1194,7 +1062,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1235,7 +1103,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1276,7 +1144,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>42.6</v>
@@ -1317,7 +1185,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>52.6</v>
@@ -1365,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1244,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/Day 2/data.xlsx
+++ b/Day 2/data.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Radar chart" sheetId="1" r:id="rId1"/>
-    <sheet name="Trend chart" sheetId="2" r:id="rId2"/>
-    <sheet name="Trend chart with plane" sheetId="3" r:id="rId3"/>
-    <sheet name="Trend chart with weather" sheetId="4" r:id="rId4"/>
-    <sheet name="Trend chart with daytime" sheetId="5" r:id="rId5"/>
-    <sheet name="Trend chart with flight duratio" sheetId="6" r:id="rId6"/>
-    <sheet name="Name" sheetId="7" r:id="rId7"/>
+    <sheet name="Trend_chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Trend_chart with plane" sheetId="3" r:id="rId3"/>
+    <sheet name="Trend_chart with weather" sheetId="4" r:id="rId4"/>
+    <sheet name="Trend_chart with daytime" sheetId="5" r:id="rId5"/>
+    <sheet name="Name" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+  <si>
+    <t>Оценка за тренажеры</t>
+  </si>
+  <si>
+    <t>Психологическое сост.</t>
+  </si>
+  <si>
+    <t>Своевременность</t>
+  </si>
+  <si>
+    <t>Скорость реакции</t>
+  </si>
   <si>
     <t>Спокойствие</t>
   </si>
   <si>
-    <t>Скорость реакции</t>
-  </si>
-  <si>
-    <t>Своевременность</t>
+    <t>Физическое сост.</t>
   </si>
   <si>
     <t>январь</t>
@@ -67,59 +75,39 @@
     <t>декабрь</t>
   </si>
   <si>
-    <t>самолет 1</t>
-  </si>
-  <si>
-    <t>самолет 2</t>
-  </si>
-  <si>
-    <t>хорошие</t>
-  </si>
-  <si>
-    <t>плохие</t>
-  </si>
-  <si>
-    <t>день</t>
-  </si>
-  <si>
-    <t>ночь</t>
-  </si>
-  <si>
-    <t>90 минут</t>
-  </si>
-  <si>
-    <t>60 минут</t>
-  </si>
-  <si>
-    <t>80 минут</t>
-  </si>
-  <si>
-    <t>70 минут</t>
-  </si>
-  <si>
-    <t>Оценка за тренажеры</t>
-  </si>
-  <si>
-    <t>номер пилота</t>
-  </si>
-  <si>
-    <t>Физическое состояние</t>
-  </si>
-  <si>
-    <t>Психологическое состояние</t>
+    <t>Хорошие</t>
+  </si>
+  <si>
+    <t>Плохие</t>
+  </si>
+  <si>
+    <t>Светлое</t>
+  </si>
+  <si>
+    <t>Темное</t>
+  </si>
+  <si>
+    <t>Id пилота</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,12 +119,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -145,25 +148,22 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -235,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,10 +269,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,59 +444,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="16.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>20.6</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>58.5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>67.5</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>63.5</v>
       </c>
       <c r="F2">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -507,92 +497,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>22.6</v>
+        <v>62.33333333333334</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="H2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>54.7</v>
+        <v>63.16666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -601,136 +586,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="B2">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
+        <v>63.16666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>32.6</v>
+        <v>62.33333333333334</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -739,137 +719,131 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B2">
-        <v>22.6</v>
+        <v>62.33333333333334</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>32.6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
+        <v>63.16666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -878,133 +852,131 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>32.6</v>
+        <v>62.33333333333334</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
+        <v>63.16666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1013,243 +985,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>22.6</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>66</v>
-      </c>
-      <c r="E2">
-        <v>71</v>
-      </c>
-      <c r="F2">
-        <v>75</v>
-      </c>
-      <c r="G2">
-        <v>70</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>55</v>
-      </c>
-      <c r="J2">
-        <v>58</v>
-      </c>
-      <c r="K2">
-        <v>51</v>
-      </c>
-      <c r="L2">
-        <v>79</v>
-      </c>
-      <c r="M2">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>32.6</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>65</v>
-      </c>
-      <c r="E3">
-        <v>72</v>
-      </c>
-      <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3">
-        <v>55</v>
-      </c>
-      <c r="J3">
-        <v>58</v>
-      </c>
-      <c r="K3">
-        <v>51</v>
-      </c>
-      <c r="L3">
-        <v>79</v>
-      </c>
-      <c r="M3">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>42.6</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>55</v>
-      </c>
-      <c r="J4">
-        <v>58</v>
-      </c>
-      <c r="K4">
-        <v>51</v>
-      </c>
-      <c r="L4">
-        <v>79</v>
-      </c>
-      <c r="M4">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>52.6</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>74</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>55</v>
-      </c>
-      <c r="J5">
-        <v>58</v>
-      </c>
-      <c r="K5">
-        <v>51</v>
-      </c>
-      <c r="L5">
-        <v>79</v>
-      </c>
-      <c r="M5">
-        <v>54.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Day 2/data.xlsx
+++ b/Day 2/data.xlsx
@@ -473,22 +473,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>51</v>
+        <v>71.55555555555556</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="C2">
-        <v>58.5</v>
+        <v>86.11111111111111</v>
       </c>
       <c r="D2">
-        <v>67.5</v>
+        <v>84.11111111111111</v>
       </c>
       <c r="E2">
-        <v>63.5</v>
+        <v>79.27777777777777</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>57.88888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -544,40 +544,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>62.33333333333334</v>
+        <v>50.2962962962963</v>
       </c>
       <c r="B2">
-        <v>61.66666666666666</v>
+        <v>57.44444444444445</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>61.48148148148149</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>74.14583333333333</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>73.98245614035086</v>
       </c>
       <c r="G2">
-        <v>61.33333333333334</v>
+        <v>82.23333333333333</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>85.45238095238095</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>78.58823529411764</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>80.25490196078431</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>80.65079365079366</v>
       </c>
       <c r="L2">
-        <v>63.16666666666666</v>
+        <v>83.51666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -636,40 +636,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>55.58333333333334</v>
       </c>
       <c r="C2">
-        <v>61.66666666666666</v>
+        <v>54.95238095238096</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>62.16666666666666</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>74.03703703703704</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>80.70833333333333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>82.47619047619047</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>76.45833333333333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>85.42857142857143</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>77.66666666666667</v>
       </c>
       <c r="M2">
-        <v>63.16666666666666</v>
+        <v>84.14814814814815</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -677,40 +677,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62.33333333333334</v>
+        <v>46.06666666666666</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>60.93333333333334</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>61.13888888888889</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>66.96296296296295</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>73.08333333333333</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.55555555555556</v>
       </c>
       <c r="H3">
-        <v>61.33333333333334</v>
+        <v>83.25</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>88.42857142857143</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>80.48148148148148</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>76.63333333333334</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>83.93333333333334</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -769,40 +769,40 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>62.33333333333334</v>
+        <v>57.16666666666666</v>
       </c>
       <c r="C2">
-        <v>61.66666666666666</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>70.73333333333333</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>75.03333333333333</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>76.5151515151515</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75.41666666666667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>79.66666666666667</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>87.45833333333333</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>85.66666666666667</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>83.27777777777777</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>82.95238095238096</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>83.85185185185185</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -810,40 +810,40 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>50.90476190476191</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>57.92307692307693</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>64.83333333333333</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>68.93333333333334</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>71.52380952380953</v>
       </c>
       <c r="H3">
-        <v>61.33333333333334</v>
+        <v>83.94444444444444</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>82.77777777777779</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>74.72727272727273</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>78.60606060606061</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>79.49999999999999</v>
       </c>
       <c r="M3">
-        <v>63.16666666666666</v>
+        <v>83.24242424242425</v>
       </c>
     </row>
   </sheetData>
@@ -902,40 +902,40 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>62.33333333333334</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>64.11111111111111</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>65.47222222222221</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>78.66666666666667</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>79.45833333333333</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75.33333333333333</v>
       </c>
       <c r="H2">
-        <v>61.33333333333334</v>
+        <v>84.52380952380953</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>88.08333333333333</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>87.625</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>78.77777777777779</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>80.03030303030302</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>84.06060606060606</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -943,40 +943,40 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>62.33333333333334</v>
+        <v>48.79166666666666</v>
       </c>
       <c r="C3">
-        <v>61.66666666666666</v>
+        <v>50.77777777777778</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>66.41666666666667</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>68.83333333333333</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>73.19444444444444</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>81.94444444444444</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>70.55555555555556</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>81.06060606060606</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="M3">
-        <v>63.16666666666666</v>
+        <v>82.85185185185185</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
